--- a/CSV/AbilitiesCSV.xlsx
+++ b/CSV/AbilitiesCSV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\CPSC 408 (Database Management)\FinalProject\PokemonDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\CPSC 408 (Database Management)\FinalProject\PokemonDB\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644AE8A-AAD4-4ED9-A1F2-28B3467F8C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB913C7-2D3C-4C8D-A090-73DDAFCD706C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{917B763A-0097-4DF3-B5C6-E25F14976228}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="502">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="500">
   <si>
     <t>ADAPTABILITY</t>
   </si>
@@ -1888,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F172582-FDF1-4CF1-B3BB-E33905B14AED}">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,15 +2083,15 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2409,15 +2403,15 @@
         <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,15 +3059,15 @@
         <v>288</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" t="s">
         <v>290</v>
-      </c>
-      <c r="B147" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,15 +3139,15 @@
         <v>307</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" t="s">
         <v>309</v>
-      </c>
-      <c r="B157" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,15 +3155,15 @@
         <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
         <v>312</v>
-      </c>
-      <c r="B159" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3185,15 +3179,15 @@
         <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" t="s">
         <v>317</v>
-      </c>
-      <c r="B162" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3385,15 +3379,15 @@
         <v>364</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>365</v>
+      </c>
+      <c r="B187" t="s">
         <v>366</v>
-      </c>
-      <c r="B187" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3417,15 +3411,15 @@
         <v>371</v>
       </c>
       <c r="B190" t="s">
-        <v>372</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191" t="s">
         <v>373</v>
-      </c>
-      <c r="B191" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3505,15 +3499,15 @@
         <v>392</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>393</v>
+      </c>
+      <c r="B202" t="s">
         <v>394</v>
-      </c>
-      <c r="B202" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3553,15 +3547,15 @@
         <v>403</v>
       </c>
       <c r="B207" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>404</v>
+      </c>
+      <c r="B208" t="s">
         <v>405</v>
-      </c>
-      <c r="B208" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3729,15 +3723,15 @@
         <v>446</v>
       </c>
       <c r="B229" t="s">
-        <v>447</v>
+        <v>135</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>447</v>
+      </c>
+      <c r="B230" t="s">
         <v>448</v>
-      </c>
-      <c r="B230" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3753,15 +3747,15 @@
         <v>451</v>
       </c>
       <c r="B232" t="s">
-        <v>452</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>452</v>
+      </c>
+      <c r="B233" t="s">
         <v>453</v>
-      </c>
-      <c r="B233" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3825,15 +3819,15 @@
         <v>468</v>
       </c>
       <c r="B241" t="s">
-        <v>469</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>469</v>
+      </c>
+      <c r="B242" t="s">
         <v>470</v>
-      </c>
-      <c r="B242" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3865,15 +3859,15 @@
         <v>477</v>
       </c>
       <c r="B246" t="s">
-        <v>478</v>
+        <v>187</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>478</v>
+      </c>
+      <c r="B247" t="s">
         <v>479</v>
-      </c>
-      <c r="B247" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3929,15 +3923,15 @@
         <v>492</v>
       </c>
       <c r="B254" t="s">
-        <v>493</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>493</v>
+      </c>
+      <c r="B255" t="s">
         <v>494</v>
-      </c>
-      <c r="B255" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3961,15 +3955,7 @@
         <v>499</v>
       </c>
       <c r="B258" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>501</v>
-      </c>
-      <c r="B259" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
